--- a/Planning GANTT & Pert.xlsx
+++ b/Planning GANTT & Pert.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="1" r:id="rId1"/>
-    <sheet name="Pert" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="Gantt (2)" sheetId="4" r:id="rId2"/>
+    <sheet name="Pert" sheetId="2" r:id="rId3"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
   <si>
     <t>14/01</t>
   </si>
@@ -166,6 +167,24 @@
   </si>
   <si>
     <t>H, J, M</t>
+  </si>
+  <si>
+    <t>Définir et valider le domaine</t>
+  </si>
+  <si>
+    <t>Collecter les données</t>
+  </si>
+  <si>
+    <t>Extraire les données</t>
+  </si>
+  <si>
+    <t>Administer les données</t>
+  </si>
+  <si>
+    <t>Exploiter les données</t>
+  </si>
+  <si>
+    <t>Valoriser les données</t>
   </si>
 </sst>
 </file>
@@ -426,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -483,9 +502,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2022,6 +2045,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{83E255F8-7C36-4FB5-8AE6-6E4CF3F0B89D}" type="pres">
       <dgm:prSet presAssocID="{3B511561-540D-4D60-9012-6B5F66859F0A}" presName="root1" presStyleCnt="0"/>
@@ -2049,10 +2079,24 @@
     <dgm:pt modelId="{D6A70E11-5D25-443F-9694-1E5BFDA45171}" type="pres">
       <dgm:prSet presAssocID="{44B93ED7-AF09-4CBA-8E44-6247F41AE32A}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="2"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{1A256CA1-F071-49F1-963C-5372D2A06396}" type="pres">
       <dgm:prSet presAssocID="{44B93ED7-AF09-4CBA-8E44-6247F41AE32A}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="2"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{D0AC582E-B979-4B25-80A7-E099CC928076}" type="pres">
       <dgm:prSet presAssocID="{18EBF0C1-73A1-45C7-ACD3-AF8F69B97D3D}" presName="root2" presStyleCnt="0"/>
@@ -2103,10 +2147,24 @@
     <dgm:pt modelId="{9FFDCA42-22D2-4A50-BF6F-47A44B7D806D}" type="pres">
       <dgm:prSet presAssocID="{8EA272DD-2EBF-4EBB-943D-F53C51381DBA}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="2"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{6B88C7CC-3ACA-4195-BB54-4D493131B3BA}" type="pres">
       <dgm:prSet presAssocID="{8EA272DD-2EBF-4EBB-943D-F53C51381DBA}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="2"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{5D5F162A-F0F6-48B1-BCF1-F84A13273B56}" type="pres">
       <dgm:prSet presAssocID="{134B85BD-3620-48EB-B95B-84B5AF5ACB30}" presName="root2" presStyleCnt="0"/>
@@ -2134,10 +2192,24 @@
     <dgm:pt modelId="{DA8672FA-9F10-4934-92F4-9B0E03E504AC}" type="pres">
       <dgm:prSet presAssocID="{607ACB9E-75FC-4DC8-82BC-D6E6C1DD98DE}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="1"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{EDFDE935-BFCE-4424-AB93-AA691740BB95}" type="pres">
       <dgm:prSet presAssocID="{607ACB9E-75FC-4DC8-82BC-D6E6C1DD98DE}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="1"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{15217014-ADB2-4539-A3A9-8C048104CD65}" type="pres">
       <dgm:prSet presAssocID="{B77806E4-5E41-4C6F-9442-D215D10C42E9}" presName="root2" presStyleCnt="0"/>
@@ -2165,10 +2237,24 @@
     <dgm:pt modelId="{DB1231E3-4B3A-43E1-A60A-E362EA672D1D}" type="pres">
       <dgm:prSet presAssocID="{89C294FD-9D1C-44AE-B4CC-FCB48A67C5E0}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="10"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{25A47253-B623-4CF0-9753-CA45DCB14863}" type="pres">
       <dgm:prSet presAssocID="{89C294FD-9D1C-44AE-B4CC-FCB48A67C5E0}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="10"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{1F149E23-F7C7-47CE-9A69-1F93DFC3E2B8}" type="pres">
       <dgm:prSet presAssocID="{F602673A-62DA-438F-8B6A-1C63CCD94BDF}" presName="root2" presStyleCnt="0"/>
@@ -2196,10 +2282,24 @@
     <dgm:pt modelId="{F5F7CDA6-8199-4DE5-9A64-4B4E2B197201}" type="pres">
       <dgm:prSet presAssocID="{7F1F80C3-D6A0-4E23-854A-0AED3AFE2338}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="10"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{7700C75A-0051-40BB-899E-A0D0389B2DCF}" type="pres">
       <dgm:prSet presAssocID="{7F1F80C3-D6A0-4E23-854A-0AED3AFE2338}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="10"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{D3D9F1B4-7206-4DD1-8DAF-67450FECBA9F}" type="pres">
       <dgm:prSet presAssocID="{29A52D27-0C72-4B86-BDF6-8986BD27A627}" presName="root2" presStyleCnt="0"/>
@@ -2227,10 +2327,24 @@
     <dgm:pt modelId="{C7C260BE-DF41-4A4D-B509-3ACB58286E66}" type="pres">
       <dgm:prSet presAssocID="{A5AB1326-B9F0-4261-891C-6A2BF0703C26}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="10"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{013CDCB5-C919-4FE7-A85C-50BF29CDF56C}" type="pres">
       <dgm:prSet presAssocID="{A5AB1326-B9F0-4261-891C-6A2BF0703C26}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="10"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{FC811636-E055-4494-B81E-E746C1609497}" type="pres">
       <dgm:prSet presAssocID="{0EC93BCF-0FDE-4D2D-B892-4C27022C6195}" presName="root2" presStyleCnt="0"/>
@@ -2258,10 +2372,24 @@
     <dgm:pt modelId="{3FE4E342-1165-4DB5-8749-DBAD9C170248}" type="pres">
       <dgm:prSet presAssocID="{4161B1B0-37CD-4FB0-A1E4-AB964CEC2D39}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="3" presStyleCnt="10"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{BAE746DB-C2F5-4E82-9CBF-90193F3B2091}" type="pres">
       <dgm:prSet presAssocID="{4161B1B0-37CD-4FB0-A1E4-AB964CEC2D39}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="3" presStyleCnt="10"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{5561D9C3-5EB9-4C41-AB15-00C8B5AACA58}" type="pres">
       <dgm:prSet presAssocID="{5C7ED44A-FEB0-4B16-A584-289B57C52515}" presName="root2" presStyleCnt="0"/>
@@ -2289,10 +2417,24 @@
     <dgm:pt modelId="{A1B406B5-8911-4317-AC33-8C3B0CE5E3B9}" type="pres">
       <dgm:prSet presAssocID="{854B2F6E-D979-4631-B36A-EB876E169C2A}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="4" presStyleCnt="10"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{09F54421-16F3-4413-ABD8-386DC3A85404}" type="pres">
       <dgm:prSet presAssocID="{854B2F6E-D979-4631-B36A-EB876E169C2A}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="4" presStyleCnt="10"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{5601AD14-1281-4268-B1B0-55DEB42FC01D}" type="pres">
       <dgm:prSet presAssocID="{0FB7C147-80F0-40B6-BCF8-0234456366D0}" presName="root2" presStyleCnt="0"/>
@@ -2320,10 +2462,24 @@
     <dgm:pt modelId="{494CF6FE-2591-4415-857B-F52A0F60951A}" type="pres">
       <dgm:prSet presAssocID="{B5ADEC2E-D8CE-4A44-A59A-3B7CE8BCCAE9}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="5" presStyleCnt="10"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{4B8C6EFF-8551-43DF-81E3-B6C157C2AC20}" type="pres">
       <dgm:prSet presAssocID="{B5ADEC2E-D8CE-4A44-A59A-3B7CE8BCCAE9}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="5" presStyleCnt="10"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{3CB0C17B-3361-415E-A8A2-1078EB680775}" type="pres">
       <dgm:prSet presAssocID="{768E160C-522E-4B89-92F7-715AE39400B5}" presName="root2" presStyleCnt="0"/>
@@ -2351,10 +2507,24 @@
     <dgm:pt modelId="{B5F3DAA7-BFDA-4D58-B990-89950E30F0A8}" type="pres">
       <dgm:prSet presAssocID="{1411A133-F459-42AB-BA96-8F674F6348E3}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="6" presStyleCnt="10"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{F18C07D0-924F-4EE6-826F-DEBEEE5D176D}" type="pres">
       <dgm:prSet presAssocID="{1411A133-F459-42AB-BA96-8F674F6348E3}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="6" presStyleCnt="10"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{1310692E-32FD-4631-8F10-301E4F71A2E8}" type="pres">
       <dgm:prSet presAssocID="{5531E4BA-D402-4979-B681-83057DF50F65}" presName="root2" presStyleCnt="0"/>
@@ -2382,10 +2552,24 @@
     <dgm:pt modelId="{304959C4-0F8C-455C-915A-8C9D5D24FD99}" type="pres">
       <dgm:prSet presAssocID="{DCFD2C52-897E-4D3F-AACC-77B80F8F0AD2}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="7" presStyleCnt="10"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{4281BE41-C03A-4CFC-B1DA-BE515A1BDD7F}" type="pres">
       <dgm:prSet presAssocID="{DCFD2C52-897E-4D3F-AACC-77B80F8F0AD2}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="7" presStyleCnt="10"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{F8A165AA-1874-4360-B912-DA7F7616F9E7}" type="pres">
       <dgm:prSet presAssocID="{9E3D3546-BC47-44E3-9D79-E89C9B97704A}" presName="root2" presStyleCnt="0"/>
@@ -2413,10 +2597,24 @@
     <dgm:pt modelId="{81ABC927-9622-442A-B8AD-72EB91444905}" type="pres">
       <dgm:prSet presAssocID="{566746CA-63BA-4C9B-A67F-EC9E3216E435}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="8" presStyleCnt="10"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{CA44C3B6-CE4C-47B0-9AFB-82116F5BD2A6}" type="pres">
       <dgm:prSet presAssocID="{566746CA-63BA-4C9B-A67F-EC9E3216E435}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="8" presStyleCnt="10"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{FE0029FB-20F3-4429-AF3C-5578CBD77AB5}" type="pres">
       <dgm:prSet presAssocID="{0E8035DB-CE5A-4BB8-ADBD-069EA0ED8D0B}" presName="root2" presStyleCnt="0"/>
@@ -2444,10 +2642,24 @@
     <dgm:pt modelId="{5613D056-022B-4A6C-A781-177D3B75F647}" type="pres">
       <dgm:prSet presAssocID="{CE019054-3759-40ED-8E26-F0A61CEC1E08}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="9" presStyleCnt="10"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B157A907-D573-427B-97FC-769E6E03B167}" type="pres">
       <dgm:prSet presAssocID="{CE019054-3759-40ED-8E26-F0A61CEC1E08}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="9" presStyleCnt="10"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{9BEF525F-A846-48BB-9D84-B936A84A7605}" type="pres">
       <dgm:prSet presAssocID="{3BE0EFDE-10D7-4D14-8542-603E1813DCBE}" presName="root2" presStyleCnt="0"/>
@@ -2482,8 +2694,8 @@
     <dgm:cxn modelId="{1761AF12-2FDF-463B-8EFB-13992ED9FCA6}" type="presOf" srcId="{5531E4BA-D402-4979-B681-83057DF50F65}" destId="{28AE2CA2-293C-45A3-86F4-307002D9B041}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{E42A3688-26CD-4998-80F4-9A06406AEF19}" srcId="{0EC93BCF-0FDE-4D2D-B892-4C27022C6195}" destId="{5C7ED44A-FEB0-4B16-A584-289B57C52515}" srcOrd="0" destOrd="0" parTransId="{4161B1B0-37CD-4FB0-A1E4-AB964CEC2D39}" sibTransId="{A4C950D2-930A-4B17-AADC-A3640D06B40B}"/>
     <dgm:cxn modelId="{8BD00F5D-CB64-4348-A017-0384A2CE5AF0}" type="presOf" srcId="{B77806E4-5E41-4C6F-9442-D215D10C42E9}" destId="{A98771A6-1065-426D-AB17-244C08354536}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{D38A3AE4-1AEB-440E-B870-0E2D4FB571C0}" type="presOf" srcId="{8EA272DD-2EBF-4EBB-943D-F53C51381DBA}" destId="{6B88C7CC-3ACA-4195-BB54-4D493131B3BA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{5CC7BED5-1626-4DD4-BD56-9BB8AEDD23CB}" type="presOf" srcId="{0FB7C147-80F0-40B6-BCF8-0234456366D0}" destId="{6C40B4ED-7BA3-445A-869A-110831F15CAE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{D38A3AE4-1AEB-440E-B870-0E2D4FB571C0}" type="presOf" srcId="{8EA272DD-2EBF-4EBB-943D-F53C51381DBA}" destId="{6B88C7CC-3ACA-4195-BB54-4D493131B3BA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{17725A06-8A35-4390-ACEB-5E7B82FD8D4B}" type="presOf" srcId="{768E160C-522E-4B89-92F7-715AE39400B5}" destId="{89789CDF-20CF-4BBB-BBDF-CA9AFF58C425}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{706E6AB8-A775-4638-9FCE-80B033F10578}" srcId="{776D0BEC-47DE-4E6B-ADE1-7FE8B40E2E09}" destId="{134B85BD-3620-48EB-B95B-84B5AF5ACB30}" srcOrd="0" destOrd="0" parTransId="{8EA272DD-2EBF-4EBB-943D-F53C51381DBA}" sibTransId="{53B6C978-0244-4642-8D2B-14C7DF6A4737}"/>
     <dgm:cxn modelId="{EDB60A21-3DEA-42A4-BA0B-556B0A075C6D}" srcId="{B77806E4-5E41-4C6F-9442-D215D10C42E9}" destId="{F602673A-62DA-438F-8B6A-1C63CCD94BDF}" srcOrd="0" destOrd="0" parTransId="{89C294FD-9D1C-44AE-B4CC-FCB48A67C5E0}" sibTransId="{7E337E4E-122A-4555-B7F7-736DF73CDA71}"/>
@@ -2491,8 +2703,8 @@
     <dgm:cxn modelId="{4CB1984C-411D-4A2B-9932-80F12CBE0726}" srcId="{29A52D27-0C72-4B86-BDF6-8986BD27A627}" destId="{0EC93BCF-0FDE-4D2D-B892-4C27022C6195}" srcOrd="0" destOrd="0" parTransId="{A5AB1326-B9F0-4261-891C-6A2BF0703C26}" sibTransId="{B5AAA810-4CCB-4B6D-A409-A8C566D49893}"/>
     <dgm:cxn modelId="{EE83B142-B076-4B31-BCA0-FA07269E0C85}" type="presOf" srcId="{89C294FD-9D1C-44AE-B4CC-FCB48A67C5E0}" destId="{25A47253-B623-4CF0-9753-CA45DCB14863}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{E78EE4F0-4F37-411A-90CE-5F2856C6212E}" type="presOf" srcId="{5C7ED44A-FEB0-4B16-A584-289B57C52515}" destId="{1751D3B1-A05B-4672-8F9C-80DA03C9B1D9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{8C51B4CC-D9D3-4E9A-8AE3-0216ABEAB10F}" type="presOf" srcId="{0EC93BCF-0FDE-4D2D-B892-4C27022C6195}" destId="{3AB530FA-7695-47C2-849F-535E3DAEAE59}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{6C42BD78-D2E6-46F4-B8D7-23461A992A46}" type="presOf" srcId="{607ACB9E-75FC-4DC8-82BC-D6E6C1DD98DE}" destId="{DA8672FA-9F10-4934-92F4-9B0E03E504AC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{8C51B4CC-D9D3-4E9A-8AE3-0216ABEAB10F}" type="presOf" srcId="{0EC93BCF-0FDE-4D2D-B892-4C27022C6195}" destId="{3AB530FA-7695-47C2-849F-535E3DAEAE59}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{E8E358DC-7BC5-4CA7-9E73-9751C7F86AAE}" type="presOf" srcId="{566746CA-63BA-4C9B-A67F-EC9E3216E435}" destId="{81ABC927-9622-442A-B8AD-72EB91444905}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{418FA2D1-AA36-4F8A-87B8-A8DE3B2E5BB6}" type="presOf" srcId="{B1A1975D-F6EE-4F6A-B0B9-A84F8E4437BA}" destId="{D37BF067-FA63-40C9-A96C-A1D0BF8BA2EB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{F716D37C-5212-45E9-AFF5-C2737FA77A6F}" type="presOf" srcId="{DCFD2C52-897E-4D3F-AACC-77B80F8F0AD2}" destId="{4281BE41-C03A-4CFC-B1DA-BE515A1BDD7F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
@@ -2506,8 +2718,8 @@
     <dgm:cxn modelId="{D7028758-A72A-4246-BDAA-9588D1E15E18}" type="presOf" srcId="{44B93ED7-AF09-4CBA-8E44-6247F41AE32A}" destId="{D6A70E11-5D25-443F-9694-1E5BFDA45171}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{4B46D2BF-3C15-4389-85FD-B01D3F1C65AB}" type="presOf" srcId="{7F1F80C3-D6A0-4E23-854A-0AED3AFE2338}" destId="{7700C75A-0051-40BB-899E-A0D0389B2DCF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{4209FBA6-3DDD-4030-AA7E-E478E38301EA}" srcId="{3B511561-540D-4D60-9012-6B5F66859F0A}" destId="{18EBF0C1-73A1-45C7-ACD3-AF8F69B97D3D}" srcOrd="0" destOrd="0" parTransId="{44B93ED7-AF09-4CBA-8E44-6247F41AE32A}" sibTransId="{CFE38D19-4777-45E4-8E4E-EF735968B8A6}"/>
+    <dgm:cxn modelId="{28287890-02EE-403C-B101-2AAF106B28BF}" srcId="{0E8035DB-CE5A-4BB8-ADBD-069EA0ED8D0B}" destId="{3BE0EFDE-10D7-4D14-8542-603E1813DCBE}" srcOrd="0" destOrd="0" parTransId="{CE019054-3759-40ED-8E26-F0A61CEC1E08}" sibTransId="{F0EC321D-12B2-4E4C-8D3C-EE75D20E209F}"/>
     <dgm:cxn modelId="{3F17C4CB-167F-47C3-B5BE-4B86D240F8DF}" type="presOf" srcId="{4161B1B0-37CD-4FB0-A1E4-AB964CEC2D39}" destId="{3FE4E342-1165-4DB5-8749-DBAD9C170248}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{28287890-02EE-403C-B101-2AAF106B28BF}" srcId="{0E8035DB-CE5A-4BB8-ADBD-069EA0ED8D0B}" destId="{3BE0EFDE-10D7-4D14-8542-603E1813DCBE}" srcOrd="0" destOrd="0" parTransId="{CE019054-3759-40ED-8E26-F0A61CEC1E08}" sibTransId="{F0EC321D-12B2-4E4C-8D3C-EE75D20E209F}"/>
     <dgm:cxn modelId="{F03457F5-E167-46FF-916C-FD510446FDD9}" type="presOf" srcId="{9E3D3546-BC47-44E3-9D79-E89C9B97704A}" destId="{DB95C6B5-8400-472C-A9DC-CF2D409C7D4A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{210227EB-D0A5-4A0A-A175-10AA1EA2C8CC}" srcId="{B1A1975D-F6EE-4F6A-B0B9-A84F8E4437BA}" destId="{3B511561-540D-4D60-9012-6B5F66859F0A}" srcOrd="0" destOrd="0" parTransId="{F1CD7E7E-13BB-49DA-9082-073E3A45CC40}" sibTransId="{4002C46B-D68C-41CA-BFBF-E13B957324C3}"/>
     <dgm:cxn modelId="{0F231AB9-72F0-497F-98D0-7054457EF219}" srcId="{29A52D27-0C72-4B86-BDF6-8986BD27A627}" destId="{0FB7C147-80F0-40B6-BCF8-0234456366D0}" srcOrd="1" destOrd="0" parTransId="{854B2F6E-D979-4631-B36A-EB876E169C2A}" sibTransId="{4CC8D2B3-8806-459D-B3F2-24B8007022DF}"/>
@@ -2528,8 +2740,8 @@
     <dgm:cxn modelId="{18FB5935-04DE-4CBE-8046-E24C96370AB3}" type="presOf" srcId="{566746CA-63BA-4C9B-A67F-EC9E3216E435}" destId="{CA44C3B6-CE4C-47B0-9AFB-82116F5BD2A6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{06481636-0EF2-4F0B-8AC2-697BBE1097B8}" type="presOf" srcId="{1411A133-F459-42AB-BA96-8F674F6348E3}" destId="{B5F3DAA7-BFDA-4D58-B990-89950E30F0A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{E7008A74-BD84-435D-BE8C-0495BC572FD4}" type="presOf" srcId="{854B2F6E-D979-4631-B36A-EB876E169C2A}" destId="{A1B406B5-8911-4317-AC33-8C3B0CE5E3B9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{74B7E597-6F2F-4900-A135-26E9AA67FDD9}" type="presOf" srcId="{A5AB1326-B9F0-4261-891C-6A2BF0703C26}" destId="{013CDCB5-C919-4FE7-A85C-50BF29CDF56C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{2B190B1F-0FEF-4983-B755-046A04774E5E}" type="presOf" srcId="{29A52D27-0C72-4B86-BDF6-8986BD27A627}" destId="{FF14BC1C-2E81-4272-8241-CAA23949FBF6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{74B7E597-6F2F-4900-A135-26E9AA67FDD9}" type="presOf" srcId="{A5AB1326-B9F0-4261-891C-6A2BF0703C26}" destId="{013CDCB5-C919-4FE7-A85C-50BF29CDF56C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{D8A3EB9B-E261-442E-AB63-DCE8C7730BB4}" srcId="{B77806E4-5E41-4C6F-9442-D215D10C42E9}" destId="{0E8035DB-CE5A-4BB8-ADBD-069EA0ED8D0B}" srcOrd="1" destOrd="0" parTransId="{566746CA-63BA-4C9B-A67F-EC9E3216E435}" sibTransId="{28A9D3BA-DCAD-4EAB-A1F9-2374F6109AC8}"/>
     <dgm:cxn modelId="{C5D9CB6F-EFF8-4A8E-9608-EF2D43B4E836}" type="presParOf" srcId="{D37BF067-FA63-40C9-A96C-A1D0BF8BA2EB}" destId="{83E255F8-7C36-4FB5-8AE6-6E4CF3F0B89D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{92B0B4C2-5359-451E-9328-3676CB2D110C}" type="presParOf" srcId="{83E255F8-7C36-4FB5-8AE6-6E4CF3F0B89D}" destId="{80BA89DD-5EE5-44E2-A103-0E52084D4145}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
@@ -6396,13 +6608,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4763</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6415,6 +6627,1725 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="1528763" y="631030"/>
+          <a:ext cx="757237" cy="119063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2383</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>223836</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>759620</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>342899</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1990727" y="807242"/>
+          <a:ext cx="757237" cy="119063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>202406</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>321469</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3517107" y="6119812"/>
+          <a:ext cx="757237" cy="119063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2382</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>200021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>321466</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5038726" y="6117427"/>
+          <a:ext cx="4569618" cy="121445"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>2381</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>202403</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>750094</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>321466</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10372725" y="6119809"/>
+          <a:ext cx="1509713" cy="119063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2366</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>211930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>759603</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>330993</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2752710" y="1581149"/>
+          <a:ext cx="757237" cy="119063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>221449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>757242</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>340512</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1988349" y="1197762"/>
+          <a:ext cx="757237" cy="119063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2328</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>223835</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>759565</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>342898</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4276672" y="1200148"/>
+          <a:ext cx="757237" cy="119063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>209544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>757209</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3512344" y="1959763"/>
+          <a:ext cx="757209" cy="123831"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>759598</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>207166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>373807</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>330997</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5033942" y="1957385"/>
+          <a:ext cx="376209" cy="123831"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>376212</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>216686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2327</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>340517</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5412556" y="2347905"/>
+          <a:ext cx="376209" cy="123831"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4732</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>214300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>380941</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>338131</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5791170" y="2726519"/>
+          <a:ext cx="376209" cy="123831"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>369094</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>214312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>364331</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6155532" y="3107531"/>
+          <a:ext cx="757237" cy="119063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>392898</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>214308</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>388135</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>333371</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6941336" y="3488527"/>
+          <a:ext cx="757237" cy="119063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>380992</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>214308</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>757201</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>338139</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7691430" y="3869527"/>
+          <a:ext cx="376209" cy="123831"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>759611</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>202405</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>333374</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8070049" y="4238624"/>
+          <a:ext cx="1502576" cy="130969"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>202410</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9572625" y="4619629"/>
+          <a:ext cx="762000" cy="130965"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>759622</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>759622</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>330989</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9570247" y="4998243"/>
+          <a:ext cx="762000" cy="130965"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>2382</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>214324</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>750095</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>333387</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10337007" y="5393543"/>
+          <a:ext cx="1509713" cy="119063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>4</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>211938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>747717</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>331001</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10334629" y="5772157"/>
+          <a:ext cx="1509713" cy="119063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4705</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>761942</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>166678</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4279049" y="1023928"/>
+          <a:ext cx="757237" cy="119063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2375</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>45237</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>759612</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>164300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1990719" y="1021550"/>
+          <a:ext cx="757237" cy="119063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>761981</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>42851</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>757218</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161914</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2750325" y="1412070"/>
+          <a:ext cx="757237" cy="119063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>757238</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3512345" y="1797844"/>
+          <a:ext cx="757237" cy="119063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>759620</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>45245</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>164308</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5033964" y="1795464"/>
+          <a:ext cx="757237" cy="119063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>757237</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5786438" y="2178843"/>
+          <a:ext cx="757237" cy="119063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9528</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>45238</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4765</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>164301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5795966" y="2557457"/>
+          <a:ext cx="757237" cy="119063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7134</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>42852</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>178594</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6555572" y="2936071"/>
+          <a:ext cx="1135866" cy="135742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>32</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>392906</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6548470" y="3321835"/>
+          <a:ext cx="1154874" cy="119071"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>378614</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>45246</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>754823</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>169077</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7689052" y="3700465"/>
+          <a:ext cx="376209" cy="123831"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>45242</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8072438" y="4081461"/>
+          <a:ext cx="742949" cy="109539"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>45242</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>164305</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8072438" y="4081461"/>
+          <a:ext cx="757237" cy="119063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>42860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161923</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8820150" y="4841079"/>
+          <a:ext cx="757237" cy="119063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>52386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8805863" y="4469605"/>
+          <a:ext cx="757237" cy="119063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>11907</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>45255</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>759620</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>164318</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9584532" y="5224474"/>
+          <a:ext cx="1509713" cy="119063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>757237</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>52385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>752474</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171448</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11091862" y="5612604"/>
+          <a:ext cx="757237" cy="119063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>166690</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3517107" y="5988846"/>
+          <a:ext cx="757237" cy="119063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2382</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>45242</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>738188</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5038726" y="5986461"/>
+          <a:ext cx="6796087" cy="109539"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1995488" y="628649"/>
           <a:ext cx="757237" cy="119063"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6459,7 +8390,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1990727" y="807242"/>
+          <a:off x="1993108" y="804861"/>
           <a:ext cx="757237" cy="119063"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6502,7 +8433,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3517107" y="6119812"/>
+          <a:off x="3519488" y="6136481"/>
           <a:ext cx="757237" cy="119063"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6545,8 +8476,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5038726" y="6117427"/>
-          <a:ext cx="4569618" cy="121445"/>
+          <a:off x="5041107" y="6134096"/>
+          <a:ext cx="4541043" cy="121445"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6588,7 +8519,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10372725" y="6119809"/>
+          <a:off x="10346531" y="6136478"/>
           <a:ext cx="1509713" cy="119063"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6631,7 +8562,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2752710" y="1581149"/>
+          <a:off x="2755091" y="1574005"/>
           <a:ext cx="757237" cy="119063"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6674,7 +8605,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1988349" y="1197762"/>
+          <a:off x="1990730" y="1192999"/>
           <a:ext cx="757237" cy="119063"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6717,7 +8648,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4276672" y="1200148"/>
+          <a:off x="4279053" y="1195385"/>
           <a:ext cx="757237" cy="119063"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6760,7 +8691,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3512344" y="1959763"/>
+          <a:off x="3514725" y="1952619"/>
           <a:ext cx="757209" cy="123831"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6803,14 +8734,14 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectangle 1"/>
+        <xdr:cNvPr id="11" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5033942" y="1957385"/>
+          <a:off x="5036323" y="1950241"/>
           <a:ext cx="376209" cy="123831"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6853,6 +8784,56 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5414937" y="2340761"/>
+          <a:ext cx="378590" cy="123831"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4732</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>214300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>380941</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>338131</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
@@ -6860,7 +8841,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5412556" y="2347905"/>
+          <a:off x="5795932" y="2719375"/>
           <a:ext cx="376209" cy="123831"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6891,56 +8872,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>4732</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>214300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>380941</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>338131</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5791170" y="2726519"/>
-          <a:ext cx="376209" cy="123831"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
       <xdr:colOff>369094</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>214312</xdr:rowOff>
@@ -6953,14 +8884,14 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rectangle 1"/>
+        <xdr:cNvPr id="14" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6155532" y="3107531"/>
+          <a:off x="6160294" y="3100387"/>
           <a:ext cx="757237" cy="119063"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6996,14 +8927,14 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Rectangle 1"/>
+        <xdr:cNvPr id="15" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6941336" y="3488527"/>
+          <a:off x="6946098" y="3481383"/>
           <a:ext cx="757237" cy="119063"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7039,14 +8970,14 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Rectangle 1"/>
+        <xdr:cNvPr id="16" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7691430" y="3869527"/>
+          <a:off x="7696192" y="3862383"/>
           <a:ext cx="376209" cy="123831"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7089,15 +9020,15 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Rectangle 1"/>
+        <xdr:cNvPr id="17" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8070049" y="4238624"/>
-          <a:ext cx="1502576" cy="130969"/>
+          <a:off x="8074811" y="4231480"/>
+          <a:ext cx="1507339" cy="130969"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7132,14 +9063,14 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Rectangle 1"/>
+        <xdr:cNvPr id="18" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9572625" y="4619629"/>
+          <a:off x="9582150" y="4612485"/>
           <a:ext cx="762000" cy="130965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7175,14 +9106,14 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Rectangle 1"/>
+        <xdr:cNvPr id="19" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9570247" y="4998243"/>
+          <a:off x="9579772" y="4991099"/>
           <a:ext cx="762000" cy="130965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7218,14 +9149,14 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Rectangle 1"/>
+        <xdr:cNvPr id="20" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10337007" y="5393543"/>
+          <a:off x="10346532" y="5386399"/>
           <a:ext cx="1509713" cy="119063"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7261,14 +9192,14 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Rectangle 1"/>
+        <xdr:cNvPr id="21" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10334629" y="5772157"/>
+          <a:off x="10344154" y="5765013"/>
           <a:ext cx="1509713" cy="119063"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7304,14 +9235,14 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Rectangle 1"/>
+        <xdr:cNvPr id="22" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4279049" y="1023928"/>
+          <a:off x="4281430" y="1019165"/>
           <a:ext cx="757237" cy="119063"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7349,14 +9280,14 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Rectangle 1"/>
+        <xdr:cNvPr id="23" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1990719" y="1021550"/>
+          <a:off x="1993100" y="1016787"/>
           <a:ext cx="757237" cy="119063"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7394,14 +9325,14 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Rectangle 1"/>
+        <xdr:cNvPr id="24" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2750325" y="1412070"/>
+          <a:off x="2752706" y="1404926"/>
           <a:ext cx="757237" cy="119063"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7439,14 +9370,14 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Rectangle 1"/>
+        <xdr:cNvPr id="25" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3512345" y="1797844"/>
+          <a:off x="3514726" y="1790700"/>
           <a:ext cx="757237" cy="119063"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7484,15 +9415,15 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="Rectangle 1"/>
+        <xdr:cNvPr id="26" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5033964" y="1795464"/>
-          <a:ext cx="757237" cy="119063"/>
+          <a:off x="5036345" y="1788320"/>
+          <a:ext cx="759618" cy="119063"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7529,14 +9460,14 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="Rectangle 1"/>
+        <xdr:cNvPr id="27" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5786438" y="2178843"/>
+          <a:off x="5791200" y="2171699"/>
           <a:ext cx="757237" cy="119063"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7574,14 +9505,14 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="Rectangle 1"/>
+        <xdr:cNvPr id="28" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5795966" y="2557457"/>
+          <a:off x="5800728" y="2550313"/>
           <a:ext cx="757237" cy="119063"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7619,14 +9550,14 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Rectangle 1"/>
+        <xdr:cNvPr id="29" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6555572" y="2936071"/>
+          <a:off x="6560334" y="2928927"/>
           <a:ext cx="1135866" cy="135742"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7664,14 +9595,14 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Rectangle 1"/>
+        <xdr:cNvPr id="30" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6548470" y="3321835"/>
+          <a:off x="6553232" y="3314691"/>
           <a:ext cx="1154874" cy="119071"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7709,14 +9640,14 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="Rectangle 1"/>
+        <xdr:cNvPr id="31" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7689052" y="3700465"/>
+          <a:off x="7693814" y="3693321"/>
           <a:ext cx="376209" cy="123831"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7761,15 +9692,15 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="Rectangle 1"/>
+        <xdr:cNvPr id="32" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8072438" y="4081461"/>
-          <a:ext cx="742949" cy="109539"/>
+          <a:off x="8077200" y="4074317"/>
+          <a:ext cx="747712" cy="109539"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7806,15 +9737,15 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Rectangle 1"/>
+        <xdr:cNvPr id="33" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8072438" y="4081461"/>
-          <a:ext cx="757237" cy="119063"/>
+          <a:off x="8077200" y="4074317"/>
+          <a:ext cx="762000" cy="119063"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7851,14 +9782,14 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="Rectangle 1"/>
+        <xdr:cNvPr id="34" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8820150" y="4841079"/>
+          <a:off x="8829675" y="4833935"/>
           <a:ext cx="757237" cy="119063"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7896,15 +9827,15 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Rectangle 1"/>
+        <xdr:cNvPr id="35" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8805863" y="4469605"/>
-          <a:ext cx="757237" cy="119063"/>
+          <a:off x="8810625" y="4462461"/>
+          <a:ext cx="762000" cy="119063"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7941,14 +9872,14 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Rectangle 1"/>
+        <xdr:cNvPr id="36" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9584532" y="5224474"/>
+          <a:off x="9594057" y="5217330"/>
           <a:ext cx="1509713" cy="119063"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7986,14 +9917,14 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="Rectangle 1"/>
+        <xdr:cNvPr id="37" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11091862" y="5612604"/>
+          <a:off x="11101387" y="5605460"/>
           <a:ext cx="757237" cy="119063"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8031,14 +9962,14 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="Rectangle 1"/>
+        <xdr:cNvPr id="38" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3517107" y="5988846"/>
+          <a:off x="3519488" y="5981702"/>
           <a:ext cx="757237" cy="119063"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8076,15 +10007,15 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="Rectangle 1"/>
+        <xdr:cNvPr id="39" name="Rectangle 1"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5038726" y="5986461"/>
-          <a:ext cx="6796087" cy="109539"/>
+          <a:off x="5041107" y="5979317"/>
+          <a:ext cx="6803231" cy="109539"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8109,7 +10040,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8565,9 +10496,446 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:W17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="13" max="19" width="11.42578125" customWidth="1"/>
+    <col min="23" max="23" width="28.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R1" s="26"/>
+    </row>
+    <row r="2" spans="2:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="23"/>
+      <c r="C2" s="8">
+        <v>42033</v>
+      </c>
+      <c r="D2" s="8">
+        <v>42037</v>
+      </c>
+      <c r="E2" s="8">
+        <v>42040</v>
+      </c>
+      <c r="F2" s="8">
+        <v>42041</v>
+      </c>
+      <c r="G2" s="8">
+        <v>42044</v>
+      </c>
+      <c r="H2" s="8">
+        <v>42058</v>
+      </c>
+      <c r="I2" s="8">
+        <v>42062</v>
+      </c>
+      <c r="J2" s="8">
+        <v>42065</v>
+      </c>
+      <c r="K2" s="8">
+        <v>42069</v>
+      </c>
+      <c r="L2" s="8">
+        <v>42072</v>
+      </c>
+      <c r="M2" s="8">
+        <v>42073</v>
+      </c>
+      <c r="N2" s="8">
+        <v>42076</v>
+      </c>
+      <c r="O2" s="8">
+        <v>42079</v>
+      </c>
+      <c r="P2" s="8">
+        <v>42070</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>42083</v>
+      </c>
+      <c r="R2" s="8">
+        <v>42086</v>
+      </c>
+      <c r="S2" s="8">
+        <v>42087</v>
+      </c>
+      <c r="T2" s="8">
+        <v>42090</v>
+      </c>
+      <c r="U2" s="9">
+        <v>42093</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="2"/>
+    </row>
+    <row r="4" spans="2:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="2"/>
+      <c r="W4" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="2"/>
+      <c r="W5" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="2"/>
+    </row>
+    <row r="7" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="2"/>
+    </row>
+    <row r="8" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="2"/>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="2"/>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="2"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="2"/>
+    </row>
+    <row r="12" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="2"/>
+    </row>
+    <row r="13" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="2"/>
+    </row>
+    <row r="14" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="2"/>
+    </row>
+    <row r="15" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="2"/>
+    </row>
+    <row r="16" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="16"/>
+    </row>
+    <row r="17" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q18"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
@@ -8583,7 +10951,7 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="23"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
@@ -8625,7 +10993,7 @@
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="24"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
@@ -8951,12 +11319,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9148,7 +11516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
